--- a/public/sample/sample_stk12.xlsx
+++ b/public/sample/sample_stk12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369572F5-5C76-47C3-B7FB-7170BC0D02A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13189A9E-9843-4C60-878D-DF41FD67CE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="2190" windowWidth="38700" windowHeight="15435" xr2:uid="{878FEF97-4A63-4B59-82C9-2B0B304D7B87}"/>
+    <workbookView xWindow="8040" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{878FEF97-4A63-4B59-82C9-2B0B304D7B87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>* (*)는 필수입력항목입니다. / * 6행부터의 예시를 삭제하고 입력해주세요.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -63,6 +63,19 @@
   <si>
     <t>수량(*)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F223MVE03CT7W0M</t>
+  </si>
+  <si>
+    <t>F223WJK05CTO90M</t>
+  </si>
+  <si>
+    <t>L0027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F224WLS01CT9OXS</t>
   </si>
 </sst>
 </file>
@@ -159,9 +172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -173,6 +183,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,17 +501,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB05DD9-DEAC-4BB8-A44B-CCD0E12162D2}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
@@ -507,55 +520,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
